--- a/vivo/data/tg483/preprocess/tg483_raw.xlsx
+++ b/vivo/data/tg483/preprocess/tg483_raw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1608,12 +1608,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benzene</t>
+          <t>Tris(2,4-ditert-butylphenyl) phosphite</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>71-43-2</t>
+          <t>31570-04-4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1636,21 +1636,13 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>not examined</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Chromosomal aberration test; mouse (bone marrow)</t>
-        </is>
-      </c>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1661,19 +1653,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Benzene</t>
+          <t>Methyloxirane</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>71-43-2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
+          <t>75-56-9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>positive</t>
@@ -1684,26 +1672,10 @@
           <t>not specified</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>not valid</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Germ cell chromosome aberration test; mouse (spermatogonia)</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1714,23 +1686,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Methyloxirane</t>
+          <t>1,2,3-tris(2,3-epoxypropoxy)propane</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>75-56-9</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>13236-02-7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1747,12 +1723,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1,2,3-tris(2,3-epoxypropoxy)propane</t>
+          <t>Dicyclohexylamine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13236-02-7</t>
+          <t>101-83-7</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1767,13 +1743,25 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>no effects</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>see Additional information on results</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1804,25 +1792,13 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>see Additional information on results</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1833,12 +1809,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dicyclohexylamine</t>
+          <t>Hydroquinone</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>101-83-7</t>
+          <t>123-31-9</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1848,17 +1824,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
@@ -1870,12 +1854,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hydroquinone</t>
+          <t>Di-tert-pentyl peroxide</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>123-31-9</t>
+          <t>10508-09-5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1885,12 +1869,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1898,10 +1882,14 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1915,12 +1903,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Di-tert-pentyl peroxide</t>
+          <t>Thiophanate-methyl</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10508-09-5</t>
+          <t>23564-05-8</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1945,7 +1933,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1964,12 +1952,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Thiophanate-methyl</t>
+          <t>N-cyclohexyl-N-methylcyclohexylamine</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23564-05-8</t>
+          <t>7560-83-0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1984,22 +1972,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -2013,17 +2001,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>N-cyclohexyl-N-methylcyclohexylamine</t>
+          <t>Antimony trichloride</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7560-83-0</t>
+          <t>10025-91-9</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>male/female</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2031,26 +2019,14 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
     </row>
@@ -2099,12 +2075,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hydroquinone</t>
+          <t>Reaction mass of cobalt sulphide and nickel sulphide and trinickel disulphide</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>123-31-9</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2114,12 +2090,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2127,7 +2103,11 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>not examined</t>
@@ -2144,12 +2124,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Reaction mass of cobalt sulphide and nickel sulphide and trinickel disulphide</t>
+          <t>2-chloroacetamide</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>79-07-2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2162,27 +2142,23 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bone marrow</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2220,12 +2196,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>bone marrow</t>
+          <t>spermatogonias</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2260,17 +2236,17 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not valid</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>spermatogonias</t>
+          <t>micronucleus test</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2283,12 +2259,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2-chloroacetamide</t>
+          <t>Hydrocarbons, C16-C20, n-alkanes, isoalkanes, cyclics, aromatics (2-30 %)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>79-07-2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2301,11 +2277,19 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>not valid</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2313,11 +2297,7 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>micronucleus test</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2328,12 +2308,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hydrocarbons, C16-C20, n-alkanes, isoalkanes, cyclics, aromatics (2-30 %)</t>
+          <t>Tris(oxiranylmethyl) benzene-1,2,4-tricarboxylate</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7237-83-4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2348,17 +2328,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2366,7 +2346,11 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>based on the pre-test</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -2377,12 +2361,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tris(oxiranylmethyl) benzene-1,2,4-tricarboxylate</t>
+          <t>Ferbam</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7237-83-4</t>
+          <t>14484-64-1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2397,7 +2381,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2407,7 +2391,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2417,7 +2401,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>based on the pre-test</t>
+          <t>pre-experiment</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2430,12 +2414,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ferbam</t>
+          <t>Cobalt lithium dioxide</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14484-64-1</t>
+          <t>12190-79-3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2465,14 +2449,10 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>pre-experiment</t>
-        </is>
-      </c>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2483,44 +2463,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cobalt lithium dioxide</t>
+          <t>Sodium O-ethyl dithiocarbonate</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12190-79-3</t>
+          <t>140-90-9</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>ambiguous</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>not examined</t>
-        </is>
-      </c>
+          <t>no effects</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
     </row>
@@ -2532,32 +2500,44 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sodium O-ethyl dithiocarbonate</t>
+          <t>Tricobalt tetraoxide</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>140-90-9</t>
+          <t>1308-06-1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ambiguous</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>no effects</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
     </row>
@@ -2569,12 +2549,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tricobalt tetraoxide</t>
+          <t>Lithium fluoride</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1308-06-1</t>
+          <t>7789-24-4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2589,7 +2569,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2604,11 +2584,19 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Swiss Webster mice</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>other: Lifetime treatment</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2658,12 +2646,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Swiss Webster mice</t>
+          <t>BALB/c mice</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>other: Lifetime treatment</t>
+          <t>other: 6-week treatment</t>
         </is>
       </c>
     </row>
@@ -2675,17 +2663,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lithium fluoride</t>
+          <t>Antimony</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7789-24-4</t>
+          <t>7440-36-0</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>male/female</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2695,7 +2683,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2703,26 +2691,14 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>BALB/c mice</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>other: 6-week treatment</t>
-        </is>
-      </c>
+          <t>No clinical signs of toxicity were seen in any of the Sb2O3-treated groups, but body-weight gain was reduced (&lt;10%) in the top dose group of Sb2O3-treated rats of both sexes over the 3-week dosing period</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2764,7 +2740,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>No clinical signs of toxicity were seen in any of the Sb2O3-treated groups, but body-weight gain was reduced (&lt;10%) in the top dose group of Sb2O3-treated rats of both sexes over the 3-week dosing period</t>
+          <t>There were no clinical signs of toxicity in the Sb2O3-exposed animals except for some reductions in body-weight gain in the top dose group</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2777,41 +2753,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Antimony</t>
+          <t>Methyloxirane</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7440-36-0</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>male/female</t>
-        </is>
-      </c>
+          <t>75-56-9</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>no effects</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>There were no clinical signs of toxicity in the Sb2O3-exposed animals except for some reductions in body-weight gain in the top dose group</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2855,28 +2819,44 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Methyloxirane</t>
+          <t>Hydrocarbons, C14-C19, isoalkanes, cyclics, &lt;2% aromatics</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>75-56-9</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>not specified</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
     </row>
@@ -2888,12 +2868,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hydrocarbons, C14-C19, isoalkanes, cyclics, &lt;2% aromatics</t>
+          <t>Resin acids and Rosin acids, cobalt salts</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>68956-82-1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2908,22 +2888,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2937,17 +2917,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Antimony</t>
+          <t>Cobalt bis(2-ethylhexanoate)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7440-36-0</t>
+          <t>136-52-7</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>male/female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2957,7 +2937,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2965,13 +2945,17 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>No clinical signs of toxicity were seen in any of the Sb2O3-treated groups, but body-weight gain was reduced (&lt;10%) in the top dose group of Sb2O3-treated rats of both sexes over the 3-week dosing period</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2982,12 +2966,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cobalt bis(2-ethylhexanoate)</t>
+          <t>Reaction mass of cobalt olivine and crystalline silicon dioxide</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>136-52-7</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3031,12 +3015,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Reaction mass of cobalt olivine and crystalline silicon dioxide</t>
+          <t>Hydrocarbons, C16-C20, n-alkanes, isoalkanes, cyclics,</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1174522-19-0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3051,22 +3035,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -3080,44 +3064,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hydrocarbons, C16-C20, n-alkanes, isoalkanes, cyclics,</t>
+          <t>Methyloxirane</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1174522-19-0</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
+          <t>75-56-9</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
           <t>not specified</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
     </row>
@@ -3129,28 +3097,44 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Methyloxirane</t>
+          <t>1,1,3-trichloroacetone</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>75-56-9</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>921-03-9</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+          <t>no effects</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
     </row>
@@ -3162,12 +3146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1,1,3-trichloroacetone</t>
+          <t>Octanoic acid, compound with dicyclohexylamine (1:1)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>921-03-9</t>
+          <t>15816-71-4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3182,7 +3166,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3190,11 +3174,7 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
           <t>valid</t>
@@ -3211,12 +3191,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Octanoic acid, compound with dicyclohexylamine (1:1)</t>
+          <t>Cobalt(2+) propionate</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>15816-71-4</t>
+          <t>1560-69-6</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3239,10 +3219,14 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3256,12 +3240,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cobalt(2+) propionate</t>
+          <t>Hydrocarbons, C13-18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1560-69-6</t>
+          <t>1174918-40-1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3276,22 +3260,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3305,12 +3289,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hydrocarbons, C13-18</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1174918-40-1</t>
+          <t>7440-48-4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3325,22 +3309,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3354,12 +3338,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Cobalt dinitrate</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7440-48-4</t>
+          <t>10141-05-6</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3403,12 +3387,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cobalt dinitrate</t>
+          <t>Reaction mass of bis(oxiran-2-ylmethyl) terephthalate and tris(oxiran-2-ylmethyl) benzene-1,2,4-tricarboxylate</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10141-05-6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3423,7 +3407,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3433,15 +3417,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>based on the pre-test</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -3472,7 +3460,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3490,11 +3478,7 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>based on the pre-test</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -3505,12 +3489,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Reaction mass of bis(oxiran-2-ylmethyl) terephthalate and tris(oxiran-2-ylmethyl) benzene-1,2,4-tricarboxylate</t>
+          <t>Pentane-2,4-dione</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>123-54-6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3525,7 +3509,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3543,7 +3527,11 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>reduction of spontane-ous activity, eyelid closure, apathy and tremor.</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -3554,12 +3542,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pentane-2,4-dione</t>
+          <t>Salt reaction of cobalt(2+) and C2/C8/C20 carboxylates</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>123-54-6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3584,19 +3572,15 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>reduction of spontane-ous activity, eyelid closure, apathy and tremor.</t>
-        </is>
-      </c>
+          <t>not examined</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -3607,12 +3591,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Salt reaction of cobalt(2+) and C2/C8/C20 carboxylates</t>
+          <t>Cobalt, borate 2-ethylhexanoate complexes</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>91782-60-4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3656,12 +3640,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cobalt, borate 2-ethylhexanoate complexes</t>
+          <t>Neodecanoic acid, cobalt salt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>91782-60-4</t>
+          <t>27253-31-2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3705,12 +3689,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Neodecanoic acid, cobalt salt</t>
+          <t>Reaction mass of cobalt and copper and iron</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>27253-31-2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3754,12 +3738,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Reaction mass of cobalt and copper and iron</t>
+          <t>Cobalt hydroxide oxide</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12016-80-7</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3803,12 +3787,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cobalt hydroxide oxide</t>
+          <t>Crotonaldehyde</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>12016-80-7</t>
+          <t>4170-30-3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3818,12 +3802,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3833,12 +3817,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3852,12 +3836,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Crotonaldehyde</t>
+          <t>Olivine, cobalt silicate blue</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4170-30-3</t>
+          <t>68187-40-6</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3867,12 +3851,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3882,12 +3866,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3901,12 +3885,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Olivine, cobalt silicate blue</t>
+          <t>Disulfiram</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>68187-40-6</t>
+          <t>97-77-8</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3931,12 +3915,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3950,12 +3934,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Disulfiram</t>
+          <t>Cobalt dichloride</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>97-77-8</t>
+          <t>7646-79-9</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3980,12 +3964,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3999,12 +3983,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cobalt dichloride</t>
+          <t>Cobalt dihydroxide</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7646-79-9</t>
+          <t>21041-93-0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4048,12 +4032,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cobalt dihydroxide</t>
+          <t>Cobalt, borate propionate complexes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>21041-93-0</t>
+          <t>91782-61-5</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4097,12 +4081,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cobalt, borate propionate complexes</t>
+          <t>Thiram</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>91782-61-5</t>
+          <t>137-26-8</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4127,12 +4111,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -4146,12 +4130,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Olivine, cobalt silicate blue</t>
+          <t>Cobalt oxalate</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>68187-40-6</t>
+          <t>814-89-1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4195,17 +4179,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cobalt oxalate</t>
+          <t>[No public or meaningful name is available]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>814-89-1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>male/female</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4215,7 +4199,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4223,14 +4207,10 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>not examined</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4244,17 +4224,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[No public or meaningful name is available]</t>
+          <t>Anthracene</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>120-12-7</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>male/female</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4264,7 +4244,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4272,7 +4252,11 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>valid</t>
@@ -4289,17 +4273,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Anthracene</t>
+          <t>Cobalt sulphide</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>120-12-7</t>
+          <t>1317-42-6</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4309,7 +4293,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4319,12 +4303,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4338,12 +4322,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cobalt sulphide</t>
+          <t>Di-tert-butyl peroxide</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1317-42-6</t>
+          <t>110-05-4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4358,7 +4342,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4368,12 +4352,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4387,12 +4371,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Thiram</t>
+          <t>Pentane-2,4-dione</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>137-26-8</t>
+          <t>123-54-6</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4407,7 +4391,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4417,7 +4401,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4436,12 +4420,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pentane-2,4-dione</t>
+          <t>Cobalt sulphate</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>123-54-6</t>
+          <t>10124-43-3</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4456,7 +4440,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4471,7 +4455,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4485,12 +4469,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cobalt sulphate</t>
+          <t>Dimethyl carbonate</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10124-43-3</t>
+          <t>616-38-6</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4505,7 +4489,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4513,14 +4497,10 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>not examined</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4534,12 +4514,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Dimethyl carbonate</t>
+          <t>Cobalt carbonate</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>616-38-6</t>
+          <t>513-79-1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4554,7 +4534,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4562,10 +4542,14 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>not examined</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4628,12 +4612,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cobalt carbonate</t>
+          <t>Hydrocarbons, C14-C18, n-alkanes, isoalkanes, cyclics, &lt;2% aromatics</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>513-79-1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4648,75 +4632,26 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>echa</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Hydrocarbons, C14-C18, n-alkanes, isoalkanes, cyclics, &lt;2% aromatics</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
